--- a/biology/Botanique/Promenade_Jane-et-Paulette-Nardal/Promenade_Jane-et-Paulette-Nardal.xlsx
+++ b/biology/Botanique/Promenade_Jane-et-Paulette-Nardal/Promenade_Jane-et-Paulette-Nardal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La promenade Jane-et-Paulette-Nardal est un espace situé du 14e arrondissement de Paris, en France.
@@ -512,15 +524,17 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Surplombant la Petite ceinture qui passe en souterrain, cette promenade plantée de 3 450 m2 s’étend sur 520 mètres de long entre la rue Didot et la rue Raymond-Losserand.
 C'est est un lieu de découverte consacré à la biodiversité, en particulier à la chauve-souris. Quatre jardins thématiques ont été conçus :
 380 m2 sont positionnés à l’emplacement de l’ancienne aire de jeux. Elle abrite un jeu multi-âge en forme de chauve-souris ;
 142 m2 sont dotés de mobiliers interactifs axés sur la faune et le patrimoine de la Petite Ceinture ;
 202 m2 équipés de tables de jeux du monde et d’un parcours de billes sur le thème de la trame verte et bleue du Grand Paris ;
-345 m2 d'agrès sportifs[1].
-La promenade est accessible aux personnes à mobilité réduite grâce notamment à un fil d’Ariane, un revêtement de sol rainuré, une application mobile et un plan tactilosensible[1].
+345 m2 d'agrès sportifs.
+La promenade est accessible aux personnes à mobilité réduite grâce notamment à un fil d’Ariane, un revêtement de sol rainuré, une application mobile et un plan tactilosensible.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après le vote du Conseil de Paris le 20 novembre 2018 sur l’attribution du nom « Promenade Jane et Paulette Nardal », à la promenade plantée du site de l'ancien hôpital Broussais, entre la rue Raymond-Losserand et la rue Didot, cette voie est officiellement inaugurée le 31 août 2019 en présence de la cantatrice Christiane Eda-Pierre, nièce des sœurs Nardal qui en tant qu'écrivaines, philosophes, et enseignantes ont posé les bases théoriques et philosophiques de la négritude avec Aimé Césaire, Léopold Sédar Senghor et Léon-Gontran Damas[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après le vote du Conseil de Paris le 20 novembre 2018 sur l’attribution du nom « Promenade Jane et Paulette Nardal », à la promenade plantée du site de l'ancien hôpital Broussais, entre la rue Raymond-Losserand et la rue Didot, cette voie est officiellement inaugurée le 31 août 2019 en présence de la cantatrice Christiane Eda-Pierre, nièce des sœurs Nardal qui en tant qu'écrivaines, philosophes, et enseignantes ont posé les bases théoriques et philosophiques de la négritude avec Aimé Césaire, Léopold Sédar Senghor et Léon-Gontran Damas,.
 </t>
         </is>
       </c>
@@ -581,6 +597,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
